--- a/theme/static/templates/template_indicators.xlsx
+++ b/theme/static/templates/template_indicators.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tequilamambo/Documents/GitHub/ppi_app/delivered_2024_01/src/assets/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CS NOTES\MY PROJECTS\POLIAGENTX\theme\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1E59F1-E765-DF4B-B3C2-1153E392928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D835FD76-48A8-4701-B91B-B691DA3CD884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="500" windowWidth="35020" windowHeight="19400" tabRatio="475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="metadata" sheetId="2" r:id="rId2"/>
-    <sheet name="example" sheetId="3" r:id="rId3"/>
+    <sheet name="example_template" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="185">
   <si>
     <t>initial_value</t>
   </si>
@@ -754,7 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -770,6 +771,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1211,22 +1213,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.33203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="1" customWidth="1"/>
-    <col min="2" max="10" width="19.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="151.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="13.33203125" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="11" width="19.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="151.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="13.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1268,12 +1273,2287 @@
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.758960638018777</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.84460000000000002</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.88076923076922997</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.93787685315598401</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.9677</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.88076923076922997</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6.9025000000000003E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.4675E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.74230769230769211</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.72700000000000009</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.39078014184397097</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.43191489361702101</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.60384615384615303</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.66536363636363616</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.7463014233493791</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.84799999999999909</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.83450000000000002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.32692307692307604</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.97006235360527115</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.95900000000000007</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.39615384615384602</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.85445454545454502</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.86153596179606506</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.96768579554321699</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.74230769230769211</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.64147272727272697</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.70523181818181802</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.97800000000000009</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.60384615384615303</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.76721311475409792</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.86229508196721305</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.88076923076922997</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.724444444444444</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.79294665017364296</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.53461538461538416</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.70322468011311601</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.39615384615384602</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.98562500000000008</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.98625000000000007</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.32692307692307604</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.79742857142857104</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.80942857142857105</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.53461538461538416</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.87739130434782597</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.92478260869565221</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.257692307692307</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.87998999999999905</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.99253000000000002</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.39615384615384602</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.99982000000000004</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.99596000000000007</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.32692307692307604</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.67767908318387504</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.70228873239436607</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.88076923076922997</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.24935714285714203</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.29795714285714203</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.88076923076922997</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.65727407407407401</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.697674074074074</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.81153846153846121</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.44442452830188606</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.52914150943396199</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.81153846153846121</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.24615384615384603</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.56615384615384601</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.39615384615384602</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.68952512381834208</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.69200000000000006</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.60384615384615303</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.17728000000000002</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.40856000000000003</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.38901000000000002</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.42019000000000001</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.75203000000000009</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.87623999999999913</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.98755097087378596</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.98963106796116485</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.60384615384615303</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.89039999999999986</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.97345000000000004</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.80679999999999985</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.8459000000000001</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.98315454545454484</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.98548181818181801</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.67307692307692313</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.98007000000000011</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.99320000000000008</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.53461538461538416</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.11212000000000001</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7.8170000000000003E-2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.39615384615384602</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.39566559530643908</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.41684000000000004</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.60384615384615303</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.62356134286685516</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.62795295358029002</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.39615384615384602</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.98895454545454498</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.99010995607824204</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.67307692307692313</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.50741999999999998</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.55402000000000007</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.60384615384615303</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.6999999999999901E-2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3.7333333333333302E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5.0810000000000008E-2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.43460000000000004</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5.1842259545220009E-8</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.112038461538461</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5.8750000000000002E-4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.03125E-3</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.60384615384615303</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6.1200000000000004E-2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>8.4999999999999895E-2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.67307692307692313</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5.1511096399693201E-2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4.0849999999999997E-2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.60384615384615303</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.57378181818181806</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.57923636363636299</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.18846153846153801</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.18318000000000001</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.277017913132034</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.67307692307692313</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.90987000000000007</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.96414000000000011</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.7601272727272721</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.77342727272727185</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.32692307692307604</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.62391793657343408</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.32692307692307604</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.94278571428571412</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.94107142857142811</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.46538461538461506</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.99425714285714217</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.99334285714285686</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.32692307692307604</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.64161811749124809</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.65610000000000002</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.88076923076922997</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.31655000000000005</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.57963000000000009</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.81153846153846121</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.79081999999999986</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.66755999999999904</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.46538461538461506</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.75295999999999985</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.76675000000000004</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.53461538461538416</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.11073000000000001</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.29632000000000003</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.67307692307692313</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.19187000000000001</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.35076000000000002</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.72200000000000009</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.69100000000000006</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.90130909090909095</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.82355454545454498</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.53461538461538416</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.7786778724660901</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.79716538461538411</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.60384615384615303</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.53114856608657801</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.54960000000000009</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.11923076923076902</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.17255172413793102</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.23555172413793099</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.60384615384615303</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="C66" s="1">
+        <v>5.3728571428571403E-2</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.81153846153846121</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.40711327734447605</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0.41154130603374506</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1282,20 +3562,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C9:C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.33203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="104.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="13.33203125" style="1"/>
+    <col min="1" max="1" width="22.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="104.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="13.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1312,7 +3594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1329,7 +3611,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +3628,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1363,7 +3645,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1380,7 +3662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,7 +3679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1414,7 +3696,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1431,7 +3713,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1448,7 +3730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="88" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="84" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1465,7 +3747,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="88" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="84" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +3764,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1499,7 +3781,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +3798,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1533,7 +3815,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +3832,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1568,20 +3850,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.33203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="19.5" style="1" customWidth="1"/>
+    <col min="1" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="1" customWidth="1"/>
+    <col min="4" max="9" width="19.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="151.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="13.33203125" style="1"/>
+    <col min="11" max="11" width="16.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="151.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="13.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1625,12 +3911,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1">
-        <v>0.75896063801877711</v>
+        <v>0.758960638018777</v>
       </c>
       <c r="C2" s="1">
         <v>0.84460000000000002</v>
@@ -1669,7 +3955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1713,7 +3999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1757,7 +4043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1801,7 +4087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1845,7 +4131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1889,7 +4175,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1899,8 +4185,8 @@
       <c r="C8" s="1">
         <v>0.83450000000000002</v>
       </c>
-      <c r="D8" s="1">
-        <v>8.7139659338781791E-6</v>
+      <c r="D8" s="7">
+        <v>8.7139659338781808E-6</v>
       </c>
       <c r="E8" s="1">
         <v>4.1734159939486404E-4</v>
@@ -1933,7 +4219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1977,7 +4263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -2021,7 +4307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -2065,7 +4351,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -2109,7 +4395,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -2153,7 +4439,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -2197,7 +4483,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -2241,7 +4527,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -2285,7 +4571,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -2329,7 +4615,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -2373,7 +4659,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
@@ -2417,7 +4703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -2461,7 +4747,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -2505,7 +4791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -2549,7 +4835,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -2593,7 +4879,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
@@ -2637,7 +4923,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -2681,7 +4967,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -2725,7 +5011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -2769,7 +5055,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
@@ -2813,7 +5099,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -2857,7 +5143,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -2901,7 +5187,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>89</v>
       </c>
@@ -2945,7 +5231,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -2989,7 +5275,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>93</v>
       </c>
@@ -3033,7 +5319,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
@@ -3077,7 +5363,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -3121,7 +5407,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>100</v>
       </c>
@@ -3165,7 +5451,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>102</v>
       </c>
@@ -3209,7 +5495,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>104</v>
       </c>
@@ -3253,7 +5539,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>107</v>
       </c>
@@ -3297,7 +5583,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>109</v>
       </c>
@@ -3341,7 +5627,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
@@ -3385,7 +5671,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
@@ -3429,7 +5715,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>116</v>
       </c>
@@ -3473,7 +5759,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>118</v>
       </c>
@@ -3517,7 +5803,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>120</v>
       </c>
@@ -3561,7 +5847,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>122</v>
       </c>
@@ -3605,7 +5891,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>124</v>
       </c>
@@ -3649,7 +5935,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>126</v>
       </c>
@@ -3693,7 +5979,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>128</v>
       </c>
@@ -3737,7 +6023,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>131</v>
       </c>
@@ -3781,7 +6067,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>134</v>
       </c>
@@ -3825,7 +6111,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>136</v>
       </c>
@@ -3869,7 +6155,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>138</v>
       </c>
@@ -3913,7 +6199,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>141</v>
       </c>
@@ -3957,7 +6243,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>143</v>
       </c>
@@ -4001,7 +6287,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>146</v>
       </c>
@@ -4045,7 +6331,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>148</v>
       </c>
@@ -4089,7 +6375,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>150</v>
       </c>
@@ -4133,7 +6419,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>152</v>
       </c>
@@ -4177,7 +6463,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>155</v>
       </c>
@@ -4221,7 +6507,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>157</v>
       </c>
@@ -4265,7 +6551,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>159</v>
       </c>
@@ -4309,7 +6595,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>162</v>
       </c>
@@ -4353,7 +6639,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>164</v>
       </c>
@@ -4397,7 +6683,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>166</v>
       </c>
@@ -4441,7 +6727,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>169</v>
       </c>
